--- a/★（git remote add）ローカルリポジトリ、リモートリポジトリ紐づけ手順メモ書き.xlsx
+++ b/★（git remote add）ローカルリポジトリ、リモートリポジトリ紐づけ手順メモ書き.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13811" windowHeight="5232"/>
+    <workbookView windowWidth="28200" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>https://prog-8.com/docs/git-env-win</t>
   </si>
@@ -26,6 +26,262 @@
   </si>
   <si>
     <t>リモートリポジトリの作成（New repository）</t>
+  </si>
+  <si>
+    <t>GitHubにSSHの設定をする</t>
+  </si>
+  <si>
+    <t>#既にやっていたので省略</t>
+  </si>
+  <si>
+    <t>新しい SSH キーを生成する</t>
+  </si>
+  <si>
+    <t>GitHub アカウントへSSHキーを追加する</t>
+  </si>
+  <si>
+    <t>SSH 接続を確認する</t>
+  </si>
+  <si>
+    <t>GitHubにプッシュする</t>
+  </si>
+  <si>
+    <t>Gitを使う準備をする</t>
+  </si>
+  <si>
+    <t>#git管理したいディレクトリへ移動</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>（リポジトリ側） git@github.comから始まる1行をコピー。</t>
+  </si>
+  <si>
+    <t>git remote add origin &lt;URL&gt;</t>
+  </si>
+  <si>
+    <t>git remote -v</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git commit -m "XXX"</t>
+  </si>
+  <si>
+    <t>git push origin YYY</t>
+  </si>
+  <si>
+    <t>#YYYは、push対象としたいローカルリポジトリ側のheadを指定する。</t>
+  </si>
+  <si>
+    <t>#なお、ローカルリポジトリのデフォルトのheadは「master」なので、YYYは「master」となる。</t>
+  </si>
+  <si>
+    <t>GitHub上で確認</t>
+  </si>
+  <si>
+    <t>↓手順コマンド↓</t>
+  </si>
+  <si>
+    <t>tkb10@DESKTOP-QAEPV1A MINGW64 ~</t>
+  </si>
+  <si>
+    <t>$ pwd</t>
+  </si>
+  <si>
+    <t>/c/Users/tkb10</t>
+  </si>
+  <si>
+    <t>(省略）</t>
+  </si>
+  <si>
+    <t>tkb10@DESKTOP-QAEPV1A MINGW64 ~/Desktop/★HTML・CSS・Javascript等学習フォルダ/★Ping-t</t>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>$ git init</t>
+  </si>
+  <si>
+    <t>Initialized empty Git repository in C:/Users/tkb10/Desktop/★HTML・CSS・Javascript等学習フォルダ/★Ping-t/.git/</t>
+  </si>
+  <si>
+    <t>tkb10@DESKTOP-QAEPV1A MINGW64 ~/Desktop/★HTML・CSS・Javascript等学習フォルダ/★Ping-t (master)</t>
+  </si>
+  <si>
+    <t>$ ls -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./    .git/  '~$★（git remote add）ローカルリポジトリ、リモートリポジトリ紐づ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ../   bk/    '★（git remote add）ローカルリポジトリ、リモートリポジトリ紐づけ</t>
+  </si>
+  <si>
+    <t>tkb10@DESKTOP-QAEPV1A MINGW64 ~/Desktop/★HTML・CSS・Javascript等学習フォルダ/★</t>
+  </si>
+  <si>
+    <t>$ git remote add origin git@github.com:tomoya-takubo/ping-t_HTML_practice_notes.git</t>
+  </si>
+  <si>
+    <t>$ git remote -v</t>
+  </si>
+  <si>
+    <t>origin  git@github.com:tomoya-takubo/ping-t_HTML_practice_notes.git (fetch)</t>
+  </si>
+  <si>
+    <t>origin  git@github.com:tomoya-takubo/ping-t_HTML_practice_notes.git (push)</t>
+  </si>
+  <si>
+    <t>$ git add .</t>
+  </si>
+  <si>
+    <t>error: open("~$★（git remote add）ローカルリポジトリ、リモートリポジトリ紐づけ手順メモ書き.xlsx"): Permission denied</t>
+  </si>
+  <si>
+    <t>error: unable to index file '~$★（git remote add）ローカルリポジトリ、リモートリポジトリ紐づけ手順メモ書き.xlsx'</t>
+  </si>
+  <si>
+    <t>fatal: adding files failed</t>
+  </si>
+  <si>
+    <t>$ git status</t>
+  </si>
+  <si>
+    <t>On branch master</t>
+  </si>
+  <si>
+    <t>No commits yet</t>
+  </si>
+  <si>
+    <t>Changes to be committed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (use "git rm --cached &lt;file&gt;..." to unstage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        new file:   bk/test.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        new file:   bk/test.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        new file:   ★（git remote add）ローカルリポジトリ、リモートリポジトリ紐づけ手順メモ書き.xlsx</t>
+  </si>
+  <si>
+    <t>$ git commit -m "リモートリポジトリへ初めてPushを行う。"</t>
+  </si>
+  <si>
+    <t>[master (root-commit) 20a2367] リモートリポジトリへ初めてPushを行う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 files changed, 448 insertions(+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create mode 100644 bk/test.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create mode 100644 bk/test.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create mode 100644 ★（git remote add）ローカルリポジトリ、リモートリポジトリ紐づけ手順メモ書き.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ git push origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>main</t>
+    </r>
+  </si>
+  <si>
+    <t>error: src refspec main does not match any</t>
+  </si>
+  <si>
+    <t>error: failed to push some refs to 'github.com:tomoya-takubo/ping-t_HTML_practice_notes.git'</t>
+  </si>
+  <si>
+    <t>$ git branch</t>
+  </si>
+  <si>
+    <t>* master</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ git </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> origin master</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  origin</t>
+  </si>
+  <si>
+    <t>$ git branch -d origin</t>
+  </si>
+  <si>
+    <t>Deleted branch origin (was 20a2367).</t>
+  </si>
+  <si>
+    <t>$ git push origin master</t>
+  </si>
+  <si>
+    <t>Enumerating objects: 6, done.</t>
+  </si>
+  <si>
+    <t>Counting objects: 100% (6/6), done.</t>
+  </si>
+  <si>
+    <t>Delta compression using up to 8 threads</t>
+  </si>
+  <si>
+    <t>Compressing objects: 100% (6/6), done.</t>
+  </si>
+  <si>
+    <t>Writing objects: 100% (6/6), 9.73 KiB | 474.00 KiB/s, done.</t>
+  </si>
+  <si>
+    <t>Total 6 (delta 0), reused 0 (delta 0), pack-reused 0 (from 0)</t>
+  </si>
+  <si>
+    <t>remote:</t>
+  </si>
+  <si>
+    <t>remote: Create a pull request for 'master' on GitHub by visiting:</t>
+  </si>
+  <si>
+    <t>remote:      https://github.com/tomoya-takubo/ping-t_HTML_practice_notes/pull/new/master</t>
+  </si>
+  <si>
+    <t>To github.com:tomoya-takubo/ping-t_HTML_practice_notes.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * [new branch]      master -&gt; master</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -33,12 +289,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,77 +311,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="4" tint="-0.25"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,7 +348,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,23 +376,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,8 +398,70 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,37 +470,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,7 +620,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,133 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,15 +673,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,6 +691,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -429,21 +713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,11 +734,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,15 +773,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,25 +781,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,126 +808,144 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,6 +1002,1137 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図形 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3855720"/>
+          <a:ext cx="7315835" cy="8230235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>574040</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4841240" y="6831330"/>
+          <a:ext cx="701675" cy="297815"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56515</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509905</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3104515" y="7811770"/>
+          <a:ext cx="453390" cy="297815"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>227330</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5104130" y="8180705"/>
+          <a:ext cx="453390" cy="297815"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図形 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12237720"/>
+          <a:ext cx="7315835" cy="8230235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>216535</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="826135" y="15218410"/>
+          <a:ext cx="831215" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="16515080"/>
+          <a:ext cx="4785360" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666115</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2985135</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="円形吹き出し 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10021570" y="8500110"/>
+          <a:ext cx="2319020" cy="907415"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -50929"/>
+            <a:gd name="adj2" fmla="val -79219"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ファイルが開かれているとエラーになるみたい。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>789305</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3842385</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="円形吹き出し 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10144760" y="13151485"/>
+          <a:ext cx="3053080" cy="986155"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -33488"/>
+            <a:gd name="adj2" fmla="val -58563"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ミス。次のとおり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>push</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>したい対象の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>head</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>名は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>なので</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>master</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が正しい。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>128270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3250565</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="円形吹き出し 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10069830" y="14880590"/>
+          <a:ext cx="2536190" cy="916940"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47145"/>
+            <a:gd name="adj2" fmla="val -81228"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>凡ミス。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>push</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が正しい。これでは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>origin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>という名のブランチができてしまう。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -955,23 +2386,61 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="13" max="13" width="14.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="15.6388888888889" style="1" customWidth="1"/>
+    <col min="15" max="15" width="110" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -990,11 +2459,510 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="14:14">
+      <c r="N23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="15:15">
+      <c r="O24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="15:15">
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="15:15">
+      <c r="O26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="15:15">
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="15:15">
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="14:15">
+      <c r="N31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="15:15">
+      <c r="O32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15">
+      <c r="O34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15">
+      <c r="O35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="15:15">
+      <c r="O36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="15:15">
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="15:15">
+      <c r="O39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="14:15">
+      <c r="N40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="15:15">
+      <c r="O42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="14:15">
+      <c r="N43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="15:15">
+      <c r="O44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="15:15">
+      <c r="O45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="15:15">
+      <c r="O47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="15:15">
+      <c r="O48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="14:15">
+      <c r="N54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="15:15">
+      <c r="O58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="15:15">
+      <c r="O60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="15:15">
+      <c r="O63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="15:15">
+      <c r="O66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="15:15">
+      <c r="O69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="14:15">
+      <c r="N70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="15:15">
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="15:15">
+      <c r="O72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="15:15">
+      <c r="O74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="15:15">
+      <c r="O75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="15:15">
+      <c r="O77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="15:15">
+      <c r="O78" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="15:15">
+      <c r="O79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="15:15">
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="15:15">
+      <c r="O82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="15:15">
+      <c r="O86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="15:15">
+      <c r="O87" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="15:15">
+      <c r="O90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="15:15">
+      <c r="O91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="15:15">
+      <c r="O92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="15:15">
+      <c r="O94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="15:15">
+      <c r="O95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="15:15">
+      <c r="O96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="15:15">
+      <c r="O102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="14:15">
+      <c r="N103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="15:15">
+      <c r="O104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="15:15">
+      <c r="O105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="15:15">
+      <c r="O107" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="15:15">
+      <c r="O108" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="15:15">
+      <c r="O112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="15:15">
+      <c r="O114" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="15:15">
+      <c r="O115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="15:15">
+      <c r="O117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="15:15">
+      <c r="O118" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://prog-8.com/docs/git-env-win"/>
+    <hyperlink ref="A1" r:id="rId2" display="https://prog-8.com/docs/git-env-win"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>